--- a/selenium/Painters.xlsx
+++ b/selenium/Painters.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,39 +434,2448 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>birth</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>birth</t>
+          <t>death</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>death</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>nationality</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Category:Lists of painters by name</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Herb Aach</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Hans von Aachen</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pacita Abad</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Vilmos Aba-Novák</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Reza Abbasi</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Niccolò dell'Abbate</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Giuseppe Abbati</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Salomon van Abbé</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>31 July 1883</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>28 February 1955</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Louise Abbéma</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>30 October 1853</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>10 July 1927</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Edwin Austin Abbey</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Mary Abbott (artist)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Zeinab Abd al-Hamid</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Basuki Abdullah</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>25 January 1915</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>5 November 1993</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rowena Meeks Abdy</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Josef Abel</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Evelyn Abelson</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>7 March 1967</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Gertrude Abercrombie</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>John Brown Abercromby</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Johann Ludwig Aberli</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>14 November 1723</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>17 October 1776</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Anna Barbara Abesch</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Nicolai Abildgaard</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>11 September 1743</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>4 June 1809</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Béla Apáti Abkarovics</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Béla Nagy Abodi</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>13 July 1918</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>9 December 2012</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Ruth Abrahams</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>11 March 1931</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>8 August 2000</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Herbert Abrams</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ruth Abrams (artist)</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>12 March 1986</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Philip Absolon</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>24 November 1960</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Otto Abt</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>İsmail Acar</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Bernard Accama</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Andreas Achenbach</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>29 September 1815</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1 April 1910</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Oswald Achenbach</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2 February 1827</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1 February 1905</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Patrick Adam</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Elinor Proby Adams</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>18 October 1885</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>18 December 1945</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>J. Ottis Adams</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>John Clayton Adams</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>20 June 1906</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Pat Adams</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Robert Adamson (photographer)</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>26 April 1821</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>14 January 1848</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Sarah Gough Adamson</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Mary Adshead</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>15 February 1904</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>3 September 1995</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Jankel Adler</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>26 July 1895</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>25 April 1949</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Mór Adler</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Willem van Aelst</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Pieter Aertsen</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>3 June 1575</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Nadir Afonso</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>4 December 1920</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>11 December 2013</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Yaacov Agam</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>11 May 1928</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Jacques-Laurent Agasse</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Knud Agger</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Gyula Aggházy</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Lubna Agha</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Christoph Ludwig Agricola</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>5 November 1665</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>8 August 1724</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Ai Xuan</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>John Macdonald Aiken</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Aimitsu</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Edgar Ainsworth (artist)</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Ivan Aivazovsky</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Tadeusz Ajdukiewicz</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Ras Akyem</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Francesco Albani</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>17 August 1578</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>4 October 1660</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Josef Albers</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Mariotto Albertinelli</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>13 October 1474</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>5 November 1515</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Giocondo Albertolli</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>24 July 1742</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>15 November 1839</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Ivan Albright</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Kazimierz Alchimowicz</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Tivadar Alconiere</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Alfred L. Copley</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Eileen Aldridge</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>20 July 1916</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Pierre Alechinsky</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>19 October 1927</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>George Aleef</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Fyodor Alekseyev</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Mikoláš Aleš</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Cosmo Alexander</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>25 August 1772</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>John Alexander (painter)</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Larry D. Alexander</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Lena Alexander</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>9 December 1899</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>29 March 1983</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Else Alfelt</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>19 September 1910</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>9 August 1974</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Brian Alfred</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Jessie Algie</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Andrew Allan (artist)</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>David Allan (painter)</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>13 February 1744</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>6 August 1796</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Griselda Allan</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>22 November 1905</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>23 August 1987</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Robert Weir Allan</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Rosemary Allan</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Daphne Allen</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>6 January 1899</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Kathleen Allen</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Alessandro Allori</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>31 May 1535</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>22 September 1607</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Cristofano Allori</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>17 October 1577</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>1 April 1621</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Washington Allston</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Laura Theresa Alma-Tadema</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>16 April 1852</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>15 August 1909</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Lawrence Alma-Tadema</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>8 January 1836</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>25 June 1912</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Almeida Júnior</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Charles Alston</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Margareta Alströmer</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Rudolf von Alt</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Albrecht Altdorfer</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>12 February 1538</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Altichiero</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>John Altoon</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Pedro Álvarez Castelló</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Edmond Aman-Jean</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>13 November 1858</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>25 January 1936</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Tarsila do Amaral</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1 September 1886</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>17 January 1973</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Christoph Amberger</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Friedrich von Amerling</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Cuno Amiet</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>28 March 1868</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>6 July 1961</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Jacopo Amigoni</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Rodolfo Amoedo</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>11 December 1857</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>31 May 1941</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Rick Amor</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>3 March 1948</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>An Kyŏn</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>An Zhengwen</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Anna Ancher</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>18 August 1859</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>15 April 1935</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Michael Ancher</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Marion Ancrum</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Werner Andermatt</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Sophie Gengembre Anderson</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>10 March 1903</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Emma Andijewska</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Ion Andreescu</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>15 February 1850</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>22 October 1882</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Constantine Andreou</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>24 March 1917</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>8 October 2007</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Michael Andrews (artist)</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Anthony Angarola</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>4 February 1893</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>15 August 1929</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Marie Angel (artist)</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Fra Angelico</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>5 March 1455</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Heinz Anger</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>23 July 1941</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Hermenegildo Anglada Camarasa</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Gaston Anglade</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Charles Angrand</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>19 April 1854</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>1 April 1926</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Sofonisba Anguissola</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>16 November 1625</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Peggy Angus</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>9 November 1904</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>28 October 1993</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Rita Angus</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>12 March 1908</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>25 January 1970</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Albert Anker</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>1 April 1831</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>16 July 1910</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Margit Anna</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>23 December 1913</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>3 June 1991</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>David Annand</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Louis Anquetin</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Pieter van Anraedt</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Lizzy Ansingh</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>13 March 1875</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>14 December 1959</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Mary Anne Ansley</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Horst Antes</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Cornelis Anthonisz.</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Richard Anuszkiewicz</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Shigeru Aoki</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Chiho Aoshima</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Apelles</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Zvest Apollonio</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Karel Appel</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>25 April 1921</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>3 May 2006</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Leonard Appelbee</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>13 November 1914</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>12 June 2000</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Joseph Ignaz Appiani</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Félix Aráuz</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2 May 1935</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>28 February 2024</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Janet Archer</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Giuseppe Arcimboldo</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>5 April 1527</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>11 July 1593</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Arent Arentsz</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Avigdor Arikha</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>28 April 1929</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>29 April 2010</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Abram Arkhipov</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>István Árkossy</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Edward Armitage</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>John Armleder</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Hazel Armour</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>15 October 1894</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>John Armstrong (artist)</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>14 November 1893</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>19 May 1973</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Georg Arnold-Graboné</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Jean Arp</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>16 September 1886</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>7 June 1966</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Eugenio de Arriba</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Art &amp; Language</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr"/>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Richard Artschwager</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr"/>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Asai Chū</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr"/>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Pieter Jansz van Asch</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr"/>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Pamela Ascherson</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>3 March 1923</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>22 June 2010</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Ásgrímur Jónsson</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr"/>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Dennis Ashbaugh</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Gigadō Ashiyuki</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr"/>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Hans Asper</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Jan Asselijn</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr"/>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Balthasar van der Ast</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>93 or 1594</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Nikolai Astrup</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr"/>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Jean-Michel Atlan</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>René Auberjonois (painter)</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>18 August 1872</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>11 October 1957</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Étienne Aubry</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr"/>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Louis-François Aubry</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr"/>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Mary Audsley</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>John James Audubon</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr"/>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Frank Auerbach</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>29 April 1931</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>11 November 2024</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Jules Robert Auguste</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr"/>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Eric Auld</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr"/>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>George Ault</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Cassandra Austen</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>9 January 1773</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>22 March 1845</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Giuseppe Avanzi</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Edward Avedisian</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Hendrick Avercamp</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>15 May 1634</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Milton Avery</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr"/>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Ben Avram</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Nikola Avramov</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Awataguchi Takamitsu</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr"/>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Joan Ayling</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>16 September 1904</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>1 July 1993</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Ay-O</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Aya Goda</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Anton Ažbe</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Giovanni Bernardino Azzolini</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
